--- a/analises/datasets/gravimetria_rsu_usina_sjb.xlsx
+++ b/analises/datasets/gravimetria_rsu_usina_sjb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Desktop\TCC\fontes\python\ok\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5120D059-91E6-4B15-9D45-C92A44351B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074B01B-9E65-474E-A9D5-CD15BD2D9DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analises/datasets/gravimetria_rsu_usina_sjb.xlsx
+++ b/analises/datasets/gravimetria_rsu_usina_sjb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Desktop\TCC\fontes\python\ok\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074B01B-9E65-474E-A9D5-CD15BD2D9DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68921FF-7272-4E4B-B696-EEA7F69BE7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Cidade</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Valor Bruto RSU (ton/dia)</t>
+  </si>
+  <si>
+    <t>Rejeito</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,19 +594,19 @@
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -638,85 +641,88 @@
         <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>3517703</v>
       </c>
@@ -749,89 +755,93 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="K2" s="6">
-        <f>SUM(L2:AG2)</f>
-        <v>0.59100000000000008</v>
+        <f>SUM(AK2-J2-L2)</f>
+        <v>0.40199999999999997</v>
       </c>
       <c r="L2" s="6">
+        <f>SUM(Z2,Y2,AC2)</f>
+        <v>0.193</v>
+      </c>
+      <c r="M2" s="6">
         <v>0.111</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>0.02</v>
       </c>
-      <c r="R2" s="6">
+      <c r="S2" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AC2" s="6">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AD2" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AE2" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AF2" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AG2" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AH2" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AI2" s="6">
         <v>0.996</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AK2" s="6">
         <v>1</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AL2" s="6">
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>3521309</v>
       </c>
@@ -864,89 +874,93 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K8" si="1">SUM(L3:AG3)</f>
-        <v>0.60500000000000009</v>
+        <f t="shared" ref="K3:K8" si="1">SUM(AK3-J3-L3)</f>
+        <v>0.39799999999999996</v>
       </c>
       <c r="L3" s="6">
+        <f t="shared" ref="L3:L8" si="2">SUM(Z3,Y3,AC3)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M3" s="6">
         <v>0.108</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R3" s="6">
+      <c r="S3" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>1E-3</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AC3" s="6">
         <v>0.16600000000000001</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AD3" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AE3" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AF3" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AG3" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AH3" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AI3" s="6">
         <v>0.997</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AJ3" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AK3" s="6">
         <v>1</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AL3" s="6">
         <v>0.191</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3536307</v>
       </c>
@@ -980,88 +994,92 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" si="1"/>
-        <v>0.58300000000000007</v>
+        <v>0.39399999999999996</v>
       </c>
       <c r="L4" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="M4" s="6">
         <v>0.1</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>0.02</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="T4" s="6">
+      <c r="U4" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="U4" s="6">
+      <c r="V4" s="6">
         <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1.4E-2</v>
       </c>
       <c r="W4" s="6">
         <v>1.4E-2</v>
       </c>
       <c r="X4" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Y4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AB4" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AC4" s="6">
         <v>0.151</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AD4" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AF4" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AG4" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AH4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AI4" s="6">
         <v>0.99399999999999999</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AJ4" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AK4" s="6">
         <v>1</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AL4" s="6">
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3543105</v>
       </c>
@@ -1095,88 +1113,92 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>0.58000000000000007</v>
+        <v>0.37400000000000005</v>
       </c>
       <c r="L5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M5" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S5" s="6">
+      <c r="T5" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
         <v>2E-3</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Z5" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AB5" s="6">
         <v>0.03</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AC5" s="6">
         <v>0.161</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AF5" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AG5" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AH5" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AI5" s="6">
         <v>0.996</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AJ5" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AK5" s="6">
         <v>1</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AL5" s="6">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>3544905</v>
       </c>
@@ -1210,88 +1232,92 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="1"/>
-        <v>0.6080000000000001</v>
+        <v>0.39899999999999997</v>
       </c>
       <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="M6" s="6">
         <v>0.109</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>0.02</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <v>0.01</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="6">
         <v>2E-3</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Z6" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AB6" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AC6" s="6">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AD6" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AF6" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AG6" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AH6" s="6">
         <v>2E-3</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AI6" s="6">
         <v>0.995</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AJ6" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AK6" s="6">
         <v>1</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AL6" s="6">
         <v>0.185</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3549409</v>
       </c>
@@ -1325,88 +1351,92 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="1"/>
-        <v>0.57300000000000006</v>
+        <v>0.38700000000000007</v>
       </c>
       <c r="L7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.191</v>
+      </c>
+      <c r="M7" s="6">
         <v>0.12</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <v>2E-3</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AC7" s="6">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AD7" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AF7" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AG7" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AH7" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AI7" s="6">
         <v>0.995</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AJ7" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AK7" s="6">
         <v>1</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AL7" s="6">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>3549508</v>
       </c>
@@ -1440,112 +1470,118 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="1"/>
-        <v>0.60600000000000009</v>
+        <v>0.40599999999999997</v>
       </c>
       <c r="L8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="M8" s="6">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="R8" s="6">
+      <c r="S8" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S8" s="6">
+      <c r="T8" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V8" s="6">
+      <c r="W8" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Y8" s="6">
         <v>2E-3</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Z8" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="AA8" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AB8" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AC8" s="6">
         <v>0.156</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AD8" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AF8" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AG8" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AH8" s="6">
         <v>2E-3</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AI8" s="6">
         <v>0.995</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AJ8" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AK8" s="6">
         <v>1</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AL8" s="6">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="AI9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
     </row>
   </sheetData>
